--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H2">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I2">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J2">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.190772211437936</v>
+        <v>0.196272</v>
       </c>
       <c r="N2">
-        <v>0.190772211437936</v>
+        <v>0.588816</v>
       </c>
       <c r="O2">
-        <v>0.02964800127054067</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P2">
-        <v>0.02964800127054067</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q2">
-        <v>5.200884433994134</v>
+        <v>5.444174351856</v>
       </c>
       <c r="R2">
-        <v>5.200884433994134</v>
+        <v>48.997569166704</v>
       </c>
       <c r="S2">
-        <v>0.0002120324276168609</v>
+        <v>0.0001531092522086195</v>
       </c>
       <c r="T2">
-        <v>0.0002120324276168609</v>
+        <v>0.000168545448229923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H3">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I3">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J3">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37941604908321</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N3">
-        <v>4.37941604908321</v>
+        <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6806071576608337</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P3">
-        <v>0.6806071576608337</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q3">
-        <v>119.3928433705396</v>
+        <v>133.3772325674881</v>
       </c>
       <c r="R3">
-        <v>119.3928433705396</v>
+        <v>1200.395093107393</v>
       </c>
       <c r="S3">
-        <v>0.004867471050590875</v>
+        <v>0.003751034963290865</v>
       </c>
       <c r="T3">
-        <v>0.004867471050590875</v>
+        <v>0.004129207478281838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2622747033896</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H4">
-        <v>27.2622747033896</v>
+        <v>83.213719</v>
       </c>
       <c r="I4">
-        <v>0.007151660096140919</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J4">
-        <v>0.007151660096140919</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86438416468629</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N4">
-        <v>1.86438416468629</v>
+        <v>0.092401</v>
       </c>
       <c r="O4">
-        <v>0.2897448410686257</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P4">
-        <v>0.2897448410686257</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q4">
-        <v>50.82735325032719</v>
+        <v>0.8543367610354443</v>
       </c>
       <c r="R4">
-        <v>50.82735325032719</v>
+        <v>7.689030849319</v>
       </c>
       <c r="S4">
-        <v>0.002072156617933183</v>
+        <v>2.40269422252939E-05</v>
       </c>
       <c r="T4">
-        <v>0.002072156617933183</v>
+        <v>2.644929479140023E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.3557215113677</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H5">
-        <v>41.3557215113677</v>
+        <v>83.213719</v>
       </c>
       <c r="I5">
-        <v>0.01084876689483259</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J5">
-        <v>0.01084876689483259</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.190772211437936</v>
+        <v>0.072589</v>
       </c>
       <c r="N5">
-        <v>0.190772211437936</v>
+        <v>0.217767</v>
       </c>
       <c r="O5">
-        <v>0.02964800127054067</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P5">
-        <v>0.02964800127054067</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q5">
-        <v>7.889522448335036</v>
+        <v>2.013466882830333</v>
       </c>
       <c r="R5">
-        <v>7.889522448335036</v>
+        <v>18.121201945473</v>
       </c>
       <c r="S5">
-        <v>0.0003216442546817961</v>
+        <v>5.662574136184216E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003216442546817961</v>
+        <v>6.233464549992808E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.3557215113677</v>
+        <v>27.73790633333333</v>
       </c>
       <c r="H6">
-        <v>41.3557215113677</v>
+        <v>83.213719</v>
       </c>
       <c r="I6">
-        <v>0.01084876689483259</v>
+        <v>0.005442473085408622</v>
       </c>
       <c r="J6">
-        <v>0.01084876689483259</v>
+        <v>0.005456294496964538</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.37941604908321</v>
+        <v>1.868607</v>
       </c>
       <c r="N6">
-        <v>4.37941604908321</v>
+        <v>3.737214</v>
       </c>
       <c r="O6">
-        <v>0.6806071576608337</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P6">
-        <v>0.6806071576608337</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q6">
-        <v>181.1139105082995</v>
+        <v>51.83124593981099</v>
       </c>
       <c r="R6">
-        <v>181.1139105082995</v>
+        <v>310.987475638866</v>
       </c>
       <c r="S6">
-        <v>0.007383748400416956</v>
+        <v>0.001457676186322002</v>
       </c>
       <c r="T6">
-        <v>0.007383748400416956</v>
+        <v>0.001069757630161449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.3557215113677</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H7">
-        <v>41.3557215113677</v>
+        <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.01084876689483259</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J7">
-        <v>0.01084876689483259</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86438416468629</v>
+        <v>0.196272</v>
       </c>
       <c r="N7">
-        <v>1.86438416468629</v>
+        <v>0.588816</v>
       </c>
       <c r="O7">
-        <v>0.2897448410686257</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P7">
-        <v>0.2897448410686257</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q7">
-        <v>77.1029523049701</v>
+        <v>8.863431611664</v>
       </c>
       <c r="R7">
-        <v>77.1029523049701</v>
+        <v>79.77088450497601</v>
       </c>
       <c r="S7">
-        <v>0.003143374239733836</v>
+        <v>0.0002492707430652856</v>
       </c>
       <c r="T7">
-        <v>0.003143374239733836</v>
+        <v>0.0002744017655007483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2170.16285575518</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H8">
-        <v>2170.16285575518</v>
+        <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.5692946486120566</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J8">
-        <v>0.5692946486120566</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.190772211437936</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N8">
-        <v>0.190772211437936</v>
+        <v>14.425447</v>
       </c>
       <c r="O8">
-        <v>0.02964800127054067</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P8">
-        <v>0.02964800127054067</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q8">
-        <v>414.0067671728822</v>
+        <v>217.1458706152408</v>
       </c>
       <c r="R8">
-        <v>414.0067671728822</v>
+        <v>1954.312835537167</v>
       </c>
       <c r="S8">
-        <v>0.01687844846536226</v>
+        <v>0.006106902483524385</v>
       </c>
       <c r="T8">
-        <v>0.01687844846536226</v>
+        <v>0.006722589272264124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2170.16285575518</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H9">
-        <v>2170.16285575518</v>
+        <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.5692946486120566</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J9">
-        <v>0.5692946486120566</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.37941604908321</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N9">
-        <v>4.37941604908321</v>
+        <v>0.092401</v>
       </c>
       <c r="O9">
-        <v>0.6806071576608337</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P9">
-        <v>0.6806071576608337</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q9">
-        <v>9504.046039618486</v>
+        <v>1.390909799240111</v>
       </c>
       <c r="R9">
-        <v>9504.046039618486</v>
+        <v>12.518188193161</v>
       </c>
       <c r="S9">
-        <v>0.3874660126633749</v>
+        <v>3.91172555263027E-05</v>
       </c>
       <c r="T9">
-        <v>0.3874660126633749</v>
+        <v>4.306098600247724E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2170.16285575518</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H10">
-        <v>2170.16285575518</v>
+        <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.5692946486120566</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J10">
-        <v>0.5692946486120566</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.86438416468629</v>
+        <v>0.072589</v>
       </c>
       <c r="N10">
-        <v>1.86438416468629</v>
+        <v>0.217767</v>
       </c>
       <c r="O10">
-        <v>0.2897448410686257</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P10">
-        <v>0.2897448410686257</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q10">
-        <v>4046.017263060335</v>
+        <v>3.278040868076333</v>
       </c>
       <c r="R10">
-        <v>4046.017263060335</v>
+        <v>29.502367812687</v>
       </c>
       <c r="S10">
-        <v>0.1649501874833194</v>
+        <v>9.218999127927579E-05</v>
       </c>
       <c r="T10">
-        <v>0.1649501874833194</v>
+        <v>0.0001014844183374797</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1536.18479857231</v>
+        <v>45.15892033333333</v>
       </c>
       <c r="H11">
-        <v>1536.18479857231</v>
+        <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.4029844040446819</v>
+        <v>0.008860661851212738</v>
       </c>
       <c r="J11">
-        <v>0.4029844040446819</v>
+        <v>0.008883163910879647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.190772211437936</v>
+        <v>1.868607</v>
       </c>
       <c r="N11">
-        <v>0.190772211437936</v>
+        <v>3.737214</v>
       </c>
       <c r="O11">
-        <v>0.02964800127054067</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P11">
-        <v>0.02964800127054067</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q11">
-        <v>293.0613712009798</v>
+        <v>84.384274647309</v>
       </c>
       <c r="R11">
-        <v>293.0613712009798</v>
+        <v>506.305647883854</v>
       </c>
       <c r="S11">
-        <v>0.0119476821231248</v>
+        <v>0.002373181377817488</v>
       </c>
       <c r="T11">
-        <v>0.0119476821231248</v>
+        <v>0.001741627468774818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1536.18479857231</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H12">
-        <v>1536.18479857231</v>
+        <v>7838.005249</v>
       </c>
       <c r="I12">
-        <v>0.4029844040446819</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J12">
-        <v>0.4029844040446819</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.37941604908321</v>
+        <v>0.196272</v>
       </c>
       <c r="N12">
-        <v>4.37941604908321</v>
+        <v>0.588816</v>
       </c>
       <c r="O12">
-        <v>0.6806071576608337</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P12">
-        <v>0.6806071576608337</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q12">
-        <v>6727.592361225234</v>
+        <v>512.793655410576</v>
       </c>
       <c r="R12">
-        <v>6727.592361225234</v>
+        <v>4615.142898695184</v>
       </c>
       <c r="S12">
-        <v>0.2742740698184959</v>
+        <v>0.0144215537642492</v>
       </c>
       <c r="T12">
-        <v>0.2742740698184959</v>
+        <v>0.01587550855552069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1536.18479857231</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H13">
-        <v>1536.18479857231</v>
+        <v>7838.005249</v>
       </c>
       <c r="I13">
-        <v>0.4029844040446819</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J13">
-        <v>0.4029844040446819</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.86438416468629</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N13">
-        <v>1.86438416468629</v>
+        <v>14.425447</v>
       </c>
       <c r="O13">
-        <v>0.2897448410686257</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P13">
-        <v>0.2897448410686257</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q13">
-        <v>2864.038612490013</v>
+        <v>12562.96992279681</v>
       </c>
       <c r="R13">
-        <v>2864.038612490013</v>
+        <v>113066.7293051713</v>
       </c>
       <c r="S13">
-        <v>0.1167626521030612</v>
+        <v>0.3533147188320753</v>
       </c>
       <c r="T13">
-        <v>0.1167626521030612</v>
+        <v>0.3889352654576477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.0548225924445</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H14">
-        <v>37.0548225924445</v>
+        <v>7838.005249</v>
       </c>
       <c r="I14">
-        <v>0.009720520352288053</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J14">
-        <v>0.009720520352288053</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.190772211437936</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N14">
-        <v>0.190772211437936</v>
+        <v>0.092401</v>
       </c>
       <c r="O14">
-        <v>0.02964800127054067</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P14">
-        <v>0.02964800127054067</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q14">
-        <v>7.06903045040103</v>
+        <v>80.47105811253878</v>
       </c>
       <c r="R14">
-        <v>7.06903045040103</v>
+        <v>724.239523012849</v>
       </c>
       <c r="S14">
-        <v>0.0002881939997549526</v>
+        <v>0.002263128021946397</v>
       </c>
       <c r="T14">
-        <v>0.0002881939997549526</v>
+        <v>0.002491292468340988</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.0548225924445</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H15">
-        <v>37.0548225924445</v>
+        <v>7838.005249</v>
       </c>
       <c r="I15">
-        <v>0.009720520352288053</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J15">
-        <v>0.009720520352288053</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.37941604908321</v>
+        <v>0.072589</v>
       </c>
       <c r="N15">
-        <v>4.37941604908321</v>
+        <v>0.217767</v>
       </c>
       <c r="O15">
-        <v>0.6806071576608337</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P15">
-        <v>0.6806071576608337</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q15">
-        <v>162.2784847572826</v>
+        <v>189.6509876732203</v>
       </c>
       <c r="R15">
-        <v>162.2784847572826</v>
+        <v>1706.858889058983</v>
       </c>
       <c r="S15">
-        <v>0.006615855727955058</v>
+        <v>0.005333650068237369</v>
       </c>
       <c r="T15">
-        <v>0.006615855727955058</v>
+        <v>0.005871378956431337</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.0548225924445</v>
+        <v>2612.668416333333</v>
       </c>
       <c r="H16">
-        <v>37.0548225924445</v>
+        <v>7838.005249</v>
       </c>
       <c r="I16">
-        <v>0.009720520352288053</v>
+        <v>0.5126334109760676</v>
       </c>
       <c r="J16">
-        <v>0.009720520352288053</v>
+        <v>0.5139352671798969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.86438416468629</v>
+        <v>1.868607</v>
       </c>
       <c r="N16">
-        <v>1.86438416468629</v>
+        <v>3.737214</v>
       </c>
       <c r="O16">
-        <v>0.2897448410686257</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P16">
-        <v>0.2897448410686257</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q16">
-        <v>69.08442446661331</v>
+        <v>4882.05049143938</v>
       </c>
       <c r="R16">
-        <v>69.08442446661331</v>
+        <v>29292.30294863628</v>
       </c>
       <c r="S16">
-        <v>0.002816470624578043</v>
+        <v>0.1373003602895594</v>
       </c>
       <c r="T16">
-        <v>0.002816470624578043</v>
+        <v>0.1007618217419562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2372.267130666667</v>
+      </c>
+      <c r="H17">
+        <v>7116.801392</v>
+      </c>
+      <c r="I17">
+        <v>0.4654641145188886</v>
+      </c>
+      <c r="J17">
+        <v>0.4666461821176285</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.196272</v>
+      </c>
+      <c r="N17">
+        <v>0.588816</v>
+      </c>
+      <c r="O17">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P17">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q17">
+        <v>465.609614270208</v>
+      </c>
+      <c r="R17">
+        <v>4190.486528431872</v>
+      </c>
+      <c r="S17">
+        <v>0.01309457325475842</v>
+      </c>
+      <c r="T17">
+        <v>0.01441474428727288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2372.267130666667</v>
+      </c>
+      <c r="H18">
+        <v>7116.801392</v>
+      </c>
+      <c r="I18">
+        <v>0.4654641145188886</v>
+      </c>
+      <c r="J18">
+        <v>0.4666461821176285</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N18">
+        <v>14.425447</v>
+      </c>
+      <c r="O18">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P18">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q18">
+        <v>11407.00458775802</v>
+      </c>
+      <c r="R18">
+        <v>102663.0412898222</v>
+      </c>
+      <c r="S18">
+        <v>0.3208049245844798</v>
+      </c>
+      <c r="T18">
+        <v>0.3531478929489138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2372.267130666667</v>
+      </c>
+      <c r="H19">
+        <v>7116.801392</v>
+      </c>
+      <c r="I19">
+        <v>0.4654641145188886</v>
+      </c>
+      <c r="J19">
+        <v>0.4666461821176285</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.092401</v>
+      </c>
+      <c r="O19">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P19">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q19">
+        <v>73.06661838024355</v>
+      </c>
+      <c r="R19">
+        <v>657.599565422192</v>
+      </c>
+      <c r="S19">
+        <v>0.002054889240973297</v>
+      </c>
+      <c r="T19">
+        <v>0.002262059432638211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2372.267130666667</v>
+      </c>
+      <c r="H20">
+        <v>7116.801392</v>
+      </c>
+      <c r="I20">
+        <v>0.4654641145188886</v>
+      </c>
+      <c r="J20">
+        <v>0.4666461821176285</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.072589</v>
+      </c>
+      <c r="N20">
+        <v>0.217767</v>
+      </c>
+      <c r="O20">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P20">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q20">
+        <v>172.2004987479627</v>
+      </c>
+      <c r="R20">
+        <v>1549.804488731664</v>
+      </c>
+      <c r="S20">
+        <v>0.004842881195431132</v>
+      </c>
+      <c r="T20">
+        <v>0.005331131659476903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2372.267130666667</v>
+      </c>
+      <c r="H21">
+        <v>7116.801392</v>
+      </c>
+      <c r="I21">
+        <v>0.4654641145188886</v>
+      </c>
+      <c r="J21">
+        <v>0.4666461821176285</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.868607</v>
+      </c>
+      <c r="N21">
+        <v>3.737214</v>
+      </c>
+      <c r="O21">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P21">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q21">
+        <v>4432.834966233648</v>
+      </c>
+      <c r="R21">
+        <v>26597.00979740189</v>
+      </c>
+      <c r="S21">
+        <v>0.1246668462432459</v>
+      </c>
+      <c r="T21">
+        <v>0.09149035378932674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>38.730512</v>
+      </c>
+      <c r="H22">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I22">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J22">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.196272</v>
+      </c>
+      <c r="N22">
+        <v>0.588816</v>
+      </c>
+      <c r="O22">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P22">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q22">
+        <v>7.601715051264</v>
+      </c>
+      <c r="R22">
+        <v>45.61029030758399</v>
+      </c>
+      <c r="S22">
+        <v>0.0002137868539432891</v>
+      </c>
+      <c r="T22">
+        <v>0.0001568936368584707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>38.730512</v>
+      </c>
+      <c r="H23">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I23">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J23">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N23">
+        <v>14.425447</v>
+      </c>
+      <c r="O23">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P23">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q23">
+        <v>186.2349827129546</v>
+      </c>
+      <c r="R23">
+        <v>1117.409896277728</v>
+      </c>
+      <c r="S23">
+        <v>0.005237580043435737</v>
+      </c>
+      <c r="T23">
+        <v>0.00384374888443778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>38.730512</v>
+      </c>
+      <c r="H24">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I24">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J24">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.092401</v>
+      </c>
+      <c r="O24">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P24">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q24">
+        <v>1.192912679770667</v>
+      </c>
+      <c r="R24">
+        <v>7.157476078624</v>
+      </c>
+      <c r="S24">
+        <v>3.354888299776815E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.462081352979463E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>38.730512</v>
+      </c>
+      <c r="H25">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I25">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J25">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.072589</v>
+      </c>
+      <c r="N25">
+        <v>0.217767</v>
+      </c>
+      <c r="O25">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P25">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q25">
+        <v>2.811409135568</v>
+      </c>
+      <c r="R25">
+        <v>16.868454813408</v>
+      </c>
+      <c r="S25">
+        <v>7.906667247946426E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.802535362109486E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>38.730512</v>
+      </c>
+      <c r="H26">
+        <v>77.46102399999999</v>
+      </c>
+      <c r="I26">
+        <v>0.00759933956842245</v>
+      </c>
+      <c r="J26">
+        <v>0.005079092294630384</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.868607</v>
+      </c>
+      <c r="N26">
+        <v>3.737214</v>
+      </c>
+      <c r="O26">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P26">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q26">
+        <v>72.37210583678399</v>
+      </c>
+      <c r="R26">
+        <v>289.4884233471359</v>
+      </c>
+      <c r="S26">
+        <v>0.002035357115566191</v>
+      </c>
+      <c r="T26">
+        <v>0.0009958036061832435</v>
       </c>
     </row>
   </sheetData>
